--- a/me-docs/27.Hien-thi-chi-tiet-bai-viet.xlsx
+++ b/me-docs/27.Hien-thi-chi-tiet-bai-viet.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3E87EB-AD53-47AA-B066-FD0AF9E20F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A9A61D-848A-4326-BD78-155AF4F11201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
+    <sheet name="link article" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>routes\web.php</t>
   </si>
@@ -49,6 +50,18 @@
   </si>
   <si>
     <t>Check browser</t>
+  </si>
+  <si>
+    <t>app\Helpers\URL.php</t>
+  </si>
+  <si>
+    <t>resources\views\news\partials\article\content.blade.php</t>
+  </si>
+  <si>
+    <t>resources\views\news\block\latest_posts.blade.php</t>
+  </si>
+  <si>
+    <t>Result</t>
   </si>
 </sst>
 </file>
@@ -449,6 +462,231 @@
         <a:xfrm>
           <a:off x="609600" y="38290500"/>
           <a:ext cx="11066813" cy="6057900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>379657</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>142524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF187460-85D5-4DE5-EB81-C9D83CE67B18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="10742857" cy="2809524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>455848</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>104524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C156CA79-8F10-F179-D99D-23CFA4EF5224}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="3619500"/>
+          <a:ext cx="10819048" cy="2009524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>608305</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>161690</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AF082C2-EB9E-C74B-2A99-83E77631B307}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="6096000"/>
+          <a:ext cx="10361905" cy="1876190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>142619</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DD6773B-8D01-E302-55EF-A7D9096FF0A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="8382000"/>
+          <a:ext cx="10829925" cy="5667119"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>7746</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4911351-6A7B-8BD2-8020-791A9E8CA582}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609601" y="14478000"/>
+          <a:ext cx="10715624" cy="5913246"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -725,7 +963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:A201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
+    <sheetView topLeftCell="A217" workbookViewId="0">
       <selection activeCell="B202" sqref="B202"/>
     </sheetView>
   </sheetViews>
@@ -775,4 +1013,45 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D422152C-0E1B-4818-8AF6-D6B358796436}">
+  <dimension ref="A2:B76"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B109" sqref="B109"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me-docs/27.Hien-thi-chi-tiet-bai-viet.xlsx
+++ b/me-docs/27.Hien-thi-chi-tiet-bai-viet.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A9A61D-848A-4326-BD78-155AF4F11201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F092F0AF-F5F9-4E52-80A2-010BC373361C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
     <sheet name="link article" sheetId="2" r:id="rId2"/>
+    <sheet name="breadcrumb" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>routes\web.php</t>
   </si>
@@ -62,6 +63,12 @@
   </si>
   <si>
     <t>Result</t>
+  </si>
+  <si>
+    <t>resources\views\news\pages\article\index.blade.php</t>
+  </si>
+  <si>
+    <t>resources\views\news\block\breadcrumb_article.blade.php</t>
   </si>
 </sst>
 </file>
@@ -687,6 +694,187 @@
         <a:xfrm>
           <a:off x="609601" y="14478000"/>
           <a:ext cx="10715624" cy="5913246"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>122743</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>142690</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{657CE3C4-6903-3D26-E5D1-34EB5B3B7903}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="8657143" cy="1476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>503467</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>189857</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{272F35FE-7D41-2607-FE95-A2DC016D584F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="2286000"/>
+          <a:ext cx="10866667" cy="5142857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>187036</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38179B3E-6334-48D5-5B86-A2F80838B09C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="7810500"/>
+          <a:ext cx="11515725" cy="4187536"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>164705</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFB181C9-510E-FD75-4D2D-5BF6451808D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="12382501"/>
+          <a:ext cx="11439525" cy="4165204"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1019,7 +1207,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D422152C-0E1B-4818-8AF6-D6B358796436}">
   <dimension ref="A2:B76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+    <sheetView topLeftCell="A94" workbookViewId="0">
       <selection activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
@@ -1054,4 +1242,40 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28C35597-DAE9-45FB-96F9-837510B64D81}">
+  <dimension ref="A2:B65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me-docs/27.Hien-thi-chi-tiet-bai-viet.xlsx
+++ b/me-docs/27.Hien-thi-chi-tiet-bai-viet.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F092F0AF-F5F9-4E52-80A2-010BC373361C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B209BB57-C75C-4E65-82CA-EE94212BA473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
     <sheet name="link article" sheetId="2" r:id="rId2"/>
     <sheet name="breadcrumb" sheetId="3" r:id="rId3"/>
+    <sheet name="show article" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>routes\web.php</t>
   </si>
@@ -69,6 +70,9 @@
   </si>
   <si>
     <t>resources\views\news\block\breadcrumb_article.blade.php</t>
+  </si>
+  <si>
+    <t>resources\views\news\pages\article\child-index\article.blade.php</t>
   </si>
 </sst>
 </file>
@@ -875,6 +879,143 @@
         <a:xfrm>
           <a:off x="609600" y="12382501"/>
           <a:ext cx="11439525" cy="4165204"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>132190</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57024</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DC0EC3C-9E74-D519-C917-42FA7080F336}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="9276190" cy="1009524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>341486</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>132595</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A2EFA2B-E36C-C9B4-7596-7E8C1A40A382}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="1714500"/>
+          <a:ext cx="11314286" cy="6038095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>182705</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED41AF5F-398B-66E0-1F8B-21D3DDBE4CD7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="8191500"/>
+          <a:ext cx="11325225" cy="6278705"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1248,7 +1389,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28C35597-DAE9-45FB-96F9-837510B64D81}">
   <dimension ref="A2:B65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+    <sheetView topLeftCell="A76" workbookViewId="0">
       <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
@@ -1278,4 +1419,35 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31BFE872-5921-4754-A048-ED39B7921885}">
+  <dimension ref="A2:A43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>